--- a/docs/Ivi.Visa/201_IviVisaFunctions.xlsx
+++ b/docs/Ivi.Visa/201_IviVisaFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Ivi.Visa\docs\Ivi.Visa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535827F7-0720-454E-B099-BA9C9C54E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D6538-A7A8-4912-8F45-829377306BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="139">
   <si>
     <t>Byte[] Read()</t>
   </si>
@@ -456,6 +456,10 @@
   </si>
   <si>
     <t># Mm.Ivi.Visa implemented functions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VISA TestPanel</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD119"/>
+  <dimension ref="B2:AE119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD119" sqref="D4:AD119"/>
+      <selection pane="bottomRight" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -845,15 +849,16 @@
     <col min="28" max="28" width="2.25" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="2.25" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="31" max="31" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30">
+    <row r="2" spans="2:31">
       <c r="B2" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="2:30" s="2" customFormat="1">
+    <row r="3" spans="2:31" s="2" customFormat="1">
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
@@ -918,7 +923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:30">
+    <row r="4" spans="2:31">
       <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1000,8 +1005,11 @@
       <c r="AD4" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="2:30">
+      <c r="AE4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31">
       <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:31">
       <c r="D6" s="2" t="s">
         <v>88</v>
       </c>
@@ -1166,8 +1174,11 @@
       <c r="AD6" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="2:30">
+      <c r="AE6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31">
       <c r="D7" s="2" t="s">
         <v>88</v>
       </c>
@@ -1247,8 +1258,11 @@
       <c r="AD7" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="2:30">
+      <c r="AE7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31">
       <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
@@ -1328,8 +1342,11 @@
       <c r="AD8" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="2:30">
+      <c r="AE8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31">
       <c r="D9" s="2" t="s">
         <v>88</v>
       </c>
@@ -1409,8 +1426,11 @@
       <c r="AD9" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="2:30">
+      <c r="AE9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31">
       <c r="D10" s="2" t="s">
         <v>88</v>
       </c>
@@ -1490,8 +1510,11 @@
       <c r="AD10" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:30">
+      <c r="AE10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31">
       <c r="D11" s="2" t="s">
         <v>88</v>
       </c>
@@ -1571,8 +1594,11 @@
       <c r="AD11" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="2:30">
+      <c r="AE11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31">
       <c r="D12" s="2" t="s">
         <v>88</v>
       </c>
@@ -1652,8 +1678,11 @@
       <c r="AD12" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="2:30">
+      <c r="AE12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31">
       <c r="D13" s="2" t="s">
         <v>88</v>
       </c>
@@ -1733,8 +1762,11 @@
       <c r="AD13" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="2:30">
+      <c r="AE13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31">
       <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
@@ -1814,8 +1846,11 @@
       <c r="AD14" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="2:30">
+      <c r="AE14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31">
       <c r="D15" s="2" t="s">
         <v>88</v>
       </c>
@@ -1897,8 +1932,11 @@
       <c r="AD15" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="2:30">
+      <c r="AE15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31">
       <c r="D16" s="2" t="s">
         <v>88</v>
       </c>
@@ -1978,8 +2016,11 @@
       <c r="AD16" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="4:30">
+      <c r="AE16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="4:31">
       <c r="D17" s="2" t="s">
         <v>88</v>
       </c>
@@ -2059,8 +2100,11 @@
       <c r="AD17" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="4:30">
+      <c r="AE17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="4:31">
       <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2140,8 +2184,11 @@
       <c r="AD18" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="4:30">
+      <c r="AE18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="4:31">
       <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
@@ -2221,8 +2268,11 @@
       <c r="AD19" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="4:30">
+      <c r="AE19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="4:31">
       <c r="D20" s="2" t="s">
         <v>88</v>
       </c>
@@ -2302,8 +2352,11 @@
       <c r="AD20" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="4:30">
+      <c r="AE20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="4:31">
       <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
@@ -2383,8 +2436,11 @@
       <c r="AD21" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="4:30">
+      <c r="AE21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="4:31">
       <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
@@ -2464,8 +2520,11 @@
       <c r="AD22" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="4:30">
+      <c r="AE22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="4:31">
       <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
@@ -2545,8 +2604,11 @@
       <c r="AD23" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="4:30">
+      <c r="AE23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="4:31">
       <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
@@ -2626,8 +2688,11 @@
       <c r="AD24" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="4:30">
+      <c r="AE24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:31">
       <c r="D25" s="2" t="s">
         <v>88</v>
       </c>
@@ -2707,8 +2772,11 @@
       <c r="AD25" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="4:30">
+      <c r="AE25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="4:31">
       <c r="D26" s="2" t="s">
         <v>88</v>
       </c>
@@ -2790,8 +2858,11 @@
       <c r="AD26" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="4:30">
+      <c r="AE26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="4:31">
       <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
@@ -2871,8 +2942,11 @@
       <c r="AD27" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="4:30">
+      <c r="AE27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="4:31">
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
@@ -2952,8 +3026,11 @@
       <c r="AD28" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="4:30">
+      <c r="AE28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="4:31">
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
@@ -3033,8 +3110,11 @@
       <c r="AD29" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="4:30">
+      <c r="AE29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="4:31">
       <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
@@ -3114,8 +3194,11 @@
       <c r="AD30" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="4:30">
+      <c r="AE30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="4:31">
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3195,8 +3278,11 @@
       <c r="AD31" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="4:30">
+      <c r="AE31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="4:31">
       <c r="D32" s="2" t="s">
         <v>88</v>
       </c>
@@ -3276,8 +3362,11 @@
       <c r="AD32" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="4:30">
+      <c r="AE32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="4:31">
       <c r="D33" s="2" t="s">
         <v>88</v>
       </c>
@@ -3357,8 +3446,11 @@
       <c r="AD33" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="4:30">
+      <c r="AE33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="4:31">
       <c r="D34" s="2" t="s">
         <v>88</v>
       </c>
@@ -3438,8 +3530,11 @@
       <c r="AD34" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="4:30">
+      <c r="AE34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="4:31">
       <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
@@ -3521,8 +3616,11 @@
       <c r="AD35" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="4:30">
+      <c r="AE35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="4:31">
       <c r="D36" s="1" t="s">
         <v>88</v>
       </c>
@@ -3601,8 +3699,11 @@
       <c r="AD36" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="4:30">
+      <c r="AE36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="4:31">
       <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
@@ -3681,8 +3782,11 @@
       <c r="AD37" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="4:30">
+      <c r="AE37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="4:31">
       <c r="D38" s="1" t="s">
         <v>88</v>
       </c>
@@ -3761,8 +3865,11 @@
       <c r="AD38" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="4:30">
+      <c r="AE38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:31">
       <c r="D39" s="1" t="s">
         <v>88</v>
       </c>
@@ -3841,8 +3948,11 @@
       <c r="AD39" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="4:30">
+      <c r="AE39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="4:31">
       <c r="D40" s="1" t="s">
         <v>88</v>
       </c>
@@ -3921,8 +4031,11 @@
       <c r="AD40" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="4:30">
+      <c r="AE40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="4:31">
       <c r="D41" s="1" t="s">
         <v>88</v>
       </c>
@@ -4001,8 +4114,11 @@
       <c r="AD41" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="4:30">
+      <c r="AE41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="4:31">
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,8 +4197,11 @@
       <c r="AD42" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="4:30">
+      <c r="AE42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="4:31">
       <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
@@ -4161,8 +4280,11 @@
       <c r="AD43" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="4:30">
+      <c r="AE43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="4:31">
       <c r="D44" s="1" t="s">
         <v>88</v>
       </c>
@@ -4241,8 +4363,11 @@
       <c r="AD44" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="4:30">
+      <c r="AE44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="4:31">
       <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,8 +4446,11 @@
       <c r="AD45" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="4:30">
+      <c r="AE45" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="4:31">
       <c r="D46" s="1" t="s">
         <v>88</v>
       </c>
@@ -4401,8 +4529,11 @@
       <c r="AD46" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="4:30">
+      <c r="AE46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="4:31">
       <c r="D47" s="1" t="s">
         <v>88</v>
       </c>
@@ -4481,8 +4612,11 @@
       <c r="AD47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="4:30">
+      <c r="AE47" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="4:31">
       <c r="D48" s="1" t="s">
         <v>88</v>
       </c>
@@ -4561,8 +4695,11 @@
       <c r="AD48" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="4:30">
+      <c r="AE48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="4:31">
       <c r="D49" s="1" t="s">
         <v>88</v>
       </c>
@@ -4641,8 +4778,11 @@
       <c r="AD49" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="4:30">
+      <c r="AE49" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="4:31">
       <c r="D50" s="1" t="s">
         <v>88</v>
       </c>
@@ -4721,8 +4861,11 @@
       <c r="AD50" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="4:30">
+      <c r="AE50" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="4:31">
       <c r="D51" s="1" t="s">
         <v>88</v>
       </c>
@@ -4801,8 +4944,11 @@
       <c r="AD51" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="4:30">
+      <c r="AE51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="4:31">
       <c r="D52" s="1" t="s">
         <v>88</v>
       </c>
@@ -4881,8 +5027,11 @@
       <c r="AD52" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="4:30">
+      <c r="AE52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="4:31">
       <c r="D53" s="1" t="s">
         <v>88</v>
       </c>
@@ -4961,8 +5110,11 @@
       <c r="AD53" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="4:30">
+      <c r="AE53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="4:31">
       <c r="D54" s="1" t="s">
         <v>88</v>
       </c>
@@ -5041,8 +5193,11 @@
       <c r="AD54" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="4:30">
+      <c r="AE54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="4:31">
       <c r="D55" s="1" t="s">
         <v>88</v>
       </c>
@@ -5121,8 +5276,11 @@
       <c r="AD55" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="4:30">
+      <c r="AE55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="4:31">
       <c r="D56" s="1" t="s">
         <v>88</v>
       </c>
@@ -5201,8 +5359,11 @@
       <c r="AD56" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="4:30">
+      <c r="AE56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="4:31">
       <c r="D57" s="1" t="s">
         <v>88</v>
       </c>
@@ -5281,8 +5442,11 @@
       <c r="AD57" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="4:30">
+      <c r="AE57" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="4:31">
       <c r="D58" s="1" t="s">
         <v>88</v>
       </c>
@@ -5361,8 +5525,11 @@
       <c r="AD58" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="4:30">
+      <c r="AE58" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="4:31">
       <c r="D59" s="1" t="s">
         <v>88</v>
       </c>
@@ -5441,8 +5608,11 @@
       <c r="AD59" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="60" spans="4:30">
+      <c r="AE59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="4:31">
       <c r="D60" s="1" t="s">
         <v>88</v>
       </c>
@@ -5521,8 +5691,11 @@
       <c r="AD60" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="4:30">
+      <c r="AE60" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31">
       <c r="D61" s="1" t="s">
         <v>88</v>
       </c>
@@ -5601,8 +5774,11 @@
       <c r="AD61" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="4:30">
+      <c r="AE61" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="4:31">
       <c r="D62" s="1" t="s">
         <v>88</v>
       </c>
@@ -5681,8 +5857,11 @@
       <c r="AD62" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="63" spans="4:30">
+      <c r="AE62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="4:31">
       <c r="D63" s="1" t="s">
         <v>88</v>
       </c>
@@ -5764,8 +5943,11 @@
       <c r="AD63" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="4:30">
+      <c r="AE63" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="4:31">
       <c r="D64" s="1" t="s">
         <v>88</v>
       </c>
@@ -5844,8 +6026,11 @@
       <c r="AD64" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" spans="4:30">
+      <c r="AE64" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="4:31">
       <c r="D65" s="1" t="s">
         <v>88</v>
       </c>
@@ -5924,8 +6109,11 @@
       <c r="AD65" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="4:30">
+      <c r="AE65" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="4:31">
       <c r="D66" s="1" t="s">
         <v>88</v>
       </c>
@@ -6004,8 +6192,11 @@
       <c r="AD66" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="4:30">
+      <c r="AE66" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="4:31">
       <c r="D67" s="1" t="s">
         <v>88</v>
       </c>
@@ -6084,8 +6275,11 @@
       <c r="AD67" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="4:30">
+      <c r="AE67" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="4:31">
       <c r="D68" s="1" t="s">
         <v>88</v>
       </c>
@@ -6164,8 +6358,11 @@
       <c r="AD68" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="4:30">
+      <c r="AE68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="4:31">
       <c r="D69" s="1" t="s">
         <v>88</v>
       </c>
@@ -6244,8 +6441,11 @@
       <c r="AD69" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="4:30">
+      <c r="AE69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="4:31">
       <c r="D70" s="1" t="s">
         <v>88</v>
       </c>
@@ -6324,8 +6524,11 @@
       <c r="AD70" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="71" spans="4:30">
+      <c r="AE70" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="4:31">
       <c r="D71" s="1" t="s">
         <v>88</v>
       </c>
@@ -6404,8 +6607,11 @@
       <c r="AD71" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="4:30">
+      <c r="AE71" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="4:31">
       <c r="D72" s="1" t="s">
         <v>88</v>
       </c>
@@ -6484,8 +6690,11 @@
       <c r="AD72" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="4:30">
+      <c r="AE72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="4:31">
       <c r="D73" s="1" t="s">
         <v>88</v>
       </c>
@@ -6564,8 +6773,11 @@
       <c r="AD73" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="74" spans="4:30">
+      <c r="AE73" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="4:31">
       <c r="D74" s="1" t="s">
         <v>88</v>
       </c>
@@ -6644,8 +6856,11 @@
       <c r="AD74" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="4:30">
+      <c r="AE74" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="4:31">
       <c r="D75" s="1" t="s">
         <v>88</v>
       </c>
@@ -6724,8 +6939,11 @@
       <c r="AD75" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" spans="4:30">
+      <c r="AE75" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="4:31">
       <c r="D76" s="1" t="s">
         <v>88</v>
       </c>
@@ -6804,8 +7022,11 @@
       <c r="AD76" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="4:30">
+      <c r="AE76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="4:31">
       <c r="D77" s="1" t="s">
         <v>88</v>
       </c>
@@ -6884,8 +7105,11 @@
       <c r="AD77" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="78" spans="4:30">
+      <c r="AE77" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="4:31">
       <c r="D78" s="1" t="s">
         <v>88</v>
       </c>
@@ -6964,8 +7188,11 @@
       <c r="AD78" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="4:30">
+      <c r="AE78" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="4:31">
       <c r="D79" s="1" t="s">
         <v>88</v>
       </c>
@@ -7044,8 +7271,11 @@
       <c r="AD79" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="4:30">
+      <c r="AE79" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="4:31">
       <c r="D80" s="1" t="s">
         <v>88</v>
       </c>
@@ -7124,8 +7354,11 @@
       <c r="AD80" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="4:30">
+      <c r="AE80" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="4:31">
       <c r="D81" s="1" t="s">
         <v>88</v>
       </c>
@@ -7204,8 +7437,11 @@
       <c r="AD81" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="4:30">
+      <c r="AE81" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="4:31">
       <c r="D82" s="1" t="s">
         <v>88</v>
       </c>
@@ -7284,8 +7520,11 @@
       <c r="AD82" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="4:30">
+      <c r="AE82" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="4:31">
       <c r="D83" s="1" t="s">
         <v>88</v>
       </c>
@@ -7364,8 +7603,11 @@
       <c r="AD83" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="4:30">
+      <c r="AE83" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="4:31">
       <c r="D84" s="1" t="s">
         <v>88</v>
       </c>
@@ -7444,8 +7686,11 @@
       <c r="AD84" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="85" spans="4:30">
+      <c r="AE84" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="4:31">
       <c r="D85" s="1" t="s">
         <v>88</v>
       </c>
@@ -7524,8 +7769,11 @@
       <c r="AD85" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="4:30">
+      <c r="AE85" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="4:31">
       <c r="D86" s="1" t="s">
         <v>88</v>
       </c>
@@ -7607,8 +7855,11 @@
       <c r="AD86" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="4:30">
+      <c r="AE86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="4:31">
       <c r="D87" s="1" t="s">
         <v>88</v>
       </c>
@@ -7687,8 +7938,11 @@
       <c r="AD87" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="4:30">
+      <c r="AE87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="4:31">
       <c r="D88" s="1" t="s">
         <v>88</v>
       </c>
@@ -7767,8 +8021,11 @@
       <c r="AD88" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="4:30">
+      <c r="AE88" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="4:31">
       <c r="D89" s="1" t="s">
         <v>88</v>
       </c>
@@ -7847,8 +8104,11 @@
       <c r="AD89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="4:30">
+      <c r="AE89" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="4:31">
       <c r="D90" s="1" t="s">
         <v>88</v>
       </c>
@@ -7927,8 +8187,11 @@
       <c r="AD90" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="4:30">
+      <c r="AE90" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="4:31">
       <c r="D91" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,8 +8270,11 @@
       <c r="AD91" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="4:30">
+      <c r="AE91" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="4:31">
       <c r="D92" s="1" t="s">
         <v>88</v>
       </c>
@@ -8087,8 +8353,11 @@
       <c r="AD92" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="4:30">
+      <c r="AE92" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="4:31">
       <c r="D93" s="1" t="s">
         <v>88</v>
       </c>
@@ -8167,8 +8436,11 @@
       <c r="AD93" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="94" spans="4:30">
+      <c r="AE93" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="4:31">
       <c r="D94" s="1" t="s">
         <v>88</v>
       </c>
@@ -8247,8 +8519,11 @@
       <c r="AD94" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="4:30">
+      <c r="AE94" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="4:31">
       <c r="D95" s="1" t="s">
         <v>88</v>
       </c>
@@ -8327,8 +8602,11 @@
       <c r="AD95" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="4:30">
+      <c r="AE95" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="4:31">
       <c r="D96" s="1" t="s">
         <v>88</v>
       </c>
@@ -8407,8 +8685,11 @@
       <c r="AD96" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="4:30">
+      <c r="AE96" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="4:31">
       <c r="D97" s="1" t="s">
         <v>88</v>
       </c>
@@ -8487,8 +8768,11 @@
       <c r="AD97" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="4:30">
+      <c r="AE97" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="4:31">
       <c r="D98" s="1" t="s">
         <v>88</v>
       </c>
@@ -8567,8 +8851,11 @@
       <c r="AD98" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="4:30">
+      <c r="AE98" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="4:31">
       <c r="D99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8647,8 +8934,11 @@
       <c r="AD99" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="100" spans="4:30">
+      <c r="AE99" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="4:31">
       <c r="D100" s="1" t="s">
         <v>88</v>
       </c>
@@ -8727,8 +9017,11 @@
       <c r="AD100" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="101" spans="4:30">
+      <c r="AE100" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="4:31">
       <c r="D101" s="1" t="s">
         <v>88</v>
       </c>
@@ -8807,8 +9100,11 @@
       <c r="AD101" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="4:30">
+      <c r="AE101" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="4:31">
       <c r="D102" s="1" t="s">
         <v>88</v>
       </c>
@@ -8887,8 +9183,11 @@
       <c r="AD102" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="103" spans="4:30">
+      <c r="AE102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="4:31">
       <c r="D103" s="1" t="s">
         <v>88</v>
       </c>
@@ -8967,8 +9266,11 @@
       <c r="AD103" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="104" spans="4:30">
+      <c r="AE103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="4:31">
       <c r="D104" s="1" t="s">
         <v>88</v>
       </c>
@@ -9047,8 +9349,11 @@
       <c r="AD104" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="105" spans="4:30">
+      <c r="AE104" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="4:31">
       <c r="D105" s="1" t="s">
         <v>88</v>
       </c>
@@ -9127,8 +9432,11 @@
       <c r="AD105" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="106" spans="4:30">
+      <c r="AE105" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="4:31">
       <c r="D106" s="1" t="s">
         <v>88</v>
       </c>
@@ -9207,8 +9515,11 @@
       <c r="AD106" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="107" spans="4:30">
+      <c r="AE106" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="4:31">
       <c r="D107" s="1" t="s">
         <v>88</v>
       </c>
@@ -9287,8 +9598,11 @@
       <c r="AD107" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="108" spans="4:30">
+      <c r="AE107" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="4:31">
       <c r="D108" s="1" t="s">
         <v>88</v>
       </c>
@@ -9367,8 +9681,11 @@
       <c r="AD108" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="109" spans="4:30">
+      <c r="AE108" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="4:31">
       <c r="D109" s="1" t="s">
         <v>88</v>
       </c>
@@ -9447,8 +9764,11 @@
       <c r="AD109" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="110" spans="4:30">
+      <c r="AE109" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="4:31">
       <c r="D110" s="1" t="s">
         <v>88</v>
       </c>
@@ -9527,8 +9847,11 @@
       <c r="AD110" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="111" spans="4:30">
+      <c r="AE110" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="4:31">
       <c r="D111" s="1" t="s">
         <v>88</v>
       </c>
@@ -9607,8 +9930,11 @@
       <c r="AD111" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="112" spans="4:30">
+      <c r="AE111" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="4:31">
       <c r="D112" s="1" t="s">
         <v>88</v>
       </c>
@@ -9687,8 +10013,11 @@
       <c r="AD112" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="113" spans="4:30">
+      <c r="AE112" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="4:31">
       <c r="D113" s="1" t="s">
         <v>88</v>
       </c>
@@ -9767,8 +10096,11 @@
       <c r="AD113" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="114" spans="4:30">
+      <c r="AE113" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="4:31">
       <c r="D114" s="1" t="s">
         <v>88</v>
       </c>
@@ -9847,8 +10179,11 @@
       <c r="AD114" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="115" spans="4:30">
+      <c r="AE114" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="4:31">
       <c r="D115" s="1" t="s">
         <v>88</v>
       </c>
@@ -9927,8 +10262,11 @@
       <c r="AD115" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="116" spans="4:30">
+      <c r="AE115" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="4:31">
       <c r="D116" s="1" t="s">
         <v>88</v>
       </c>
@@ -10007,8 +10345,11 @@
       <c r="AD116" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="117" spans="4:30">
+      <c r="AE116" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="4:31">
       <c r="D117" s="1" t="s">
         <v>88</v>
       </c>
@@ -10087,8 +10428,11 @@
       <c r="AD117" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="4:30">
+      <c r="AE117" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="4:31">
       <c r="D118" s="1" t="s">
         <v>88</v>
       </c>
@@ -10167,8 +10511,11 @@
       <c r="AD118" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="119" spans="4:30">
+      <c r="AE118" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="4:31">
       <c r="D119" s="1" t="s">
         <v>88</v>
       </c>
@@ -10246,6 +10593,9 @@
       </c>
       <c r="AD119" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="AE119" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
